--- a/regionseng/3/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/3/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5AA02-4742-4955-BF1F-7367B5731B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14100" windowHeight="8010"/>
+    <workbookView xWindow="420" yWindow="120" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
   <si>
     <t>-</t>
   </si>
@@ -91,11 +92,14 @@
   <si>
     <t>Average Monthly Remuneration of Employed Persons in Guria Region by Kind of Economic Activity (NACE rev.2), (GEL)</t>
   </si>
+  <si>
+    <t>...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -198,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +246,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,6 +346,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,10 +590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -563,17 +609,17 @@
     <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="11"/>
       <c r="B5" s="12">
         <v>2006</v>
@@ -620,8 +666,14 @@
       <c r="P5" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -670,8 +722,14 @@
       <c r="P6" s="2">
         <v>542.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="2">
+        <v>637.4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -720,8 +778,14 @@
       <c r="P7" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="R7" s="3">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -770,8 +834,14 @@
       <c r="P8" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -820,8 +890,14 @@
       <c r="P9" s="3">
         <v>190.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <v>215.6</v>
+      </c>
+      <c r="R9" s="3">
+        <v>243.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -870,8 +946,14 @@
       <c r="P10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="25.5">
+      <c r="Q10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="25.5">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
@@ -920,8 +1002,14 @@
       <c r="P11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -970,8 +1058,14 @@
       <c r="P12" s="3">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>53.3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1020,8 +1114,14 @@
       <c r="P13" s="3">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <v>182.2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1170,14 @@
       <c r="P14" s="3">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3">
+        <v>50</v>
+      </c>
+      <c r="R14" s="3">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1226,14 @@
       <c r="P15" s="3">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3">
+        <v>46</v>
+      </c>
+      <c r="R15" s="3">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1170,8 +1282,14 @@
       <c r="P16" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1220,8 +1338,14 @@
       <c r="P17" s="4">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="R17" s="4">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1270,8 +1394,14 @@
       <c r="P18" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1320,8 +1450,14 @@
       <c r="P19" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="R19" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1370,8 +1506,14 @@
       <c r="P20" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1420,8 +1562,14 @@
       <c r="P21" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R21" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1470,8 +1618,14 @@
       <c r="P22" s="3">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="R22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1520,25 +1674,34 @@
       <c r="P23" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="6"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="N26" s="16"/>
       <c r="O26" s="6"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="11"/>
       <c r="B27" s="12">
         <v>2006</v>
@@ -1585,8 +1748,14 @@
       <c r="P27" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1635,8 +1804,14 @@
       <c r="P28" s="2">
         <v>405</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="2">
+        <v>508.6</v>
+      </c>
+      <c r="R28" s="2">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
         <v>4</v>
       </c>
@@ -1685,8 +1860,14 @@
       <c r="P29" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1916,14 @@
       <c r="P30" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="3">
+        <v>23</v>
+      </c>
+      <c r="R30" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
@@ -1785,8 +1972,14 @@
       <c r="P31" s="3">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="3">
+        <v>211.7</v>
+      </c>
+      <c r="R31" s="3">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
@@ -1835,8 +2028,14 @@
       <c r="P32" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="25.5">
+      <c r="Q32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="25.5">
       <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1885,8 +2084,14 @@
       <c r="P33" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
@@ -1935,8 +2140,14 @@
       <c r="P34" s="3">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R34" s="3">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1985,8 +2196,14 @@
       <c r="P35" s="3">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R35" s="3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -2035,8 +2252,14 @@
       <c r="P36" s="3">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="R36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
@@ -2085,8 +2308,14 @@
       <c r="P37" s="3">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="3">
+        <v>46</v>
+      </c>
+      <c r="R37" s="3">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -2135,8 +2364,14 @@
       <c r="P38" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
         <v>13</v>
       </c>
@@ -2185,8 +2420,14 @@
       <c r="P39" s="4">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R39" s="4">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
         <v>14</v>
       </c>
@@ -2235,8 +2476,14 @@
       <c r="P40" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2285,8 +2532,14 @@
       <c r="P41" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="R41" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
         <v>16</v>
       </c>
@@ -2335,8 +2588,14 @@
       <c r="P42" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
         <v>17</v>
       </c>
@@ -2385,8 +2644,14 @@
       <c r="P43" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="R43" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
         <v>18</v>
       </c>
@@ -2435,8 +2700,14 @@
       <c r="P44" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="R44" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
         <v>19</v>
       </c>
@@ -2485,23 +2756,32 @@
       <c r="P45" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="11"/>
       <c r="B49" s="12">
         <v>2006</v>
@@ -2548,8 +2828,14 @@
       <c r="P49" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
@@ -2598,8 +2884,14 @@
       <c r="P50" s="7">
         <v>8121.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="7">
+        <v>8667</v>
+      </c>
+      <c r="R50" s="18">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
         <v>4</v>
       </c>
@@ -2648,8 +2940,14 @@
       <c r="P51" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="8">
+        <v>252</v>
+      </c>
+      <c r="R51" s="8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
         <v>5</v>
       </c>
@@ -2698,8 +2996,14 @@
       <c r="P52" s="8">
         <v>271</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="8">
+        <v>359</v>
+      </c>
+      <c r="R52" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
         <v>6</v>
       </c>
@@ -2748,8 +3052,14 @@
       <c r="P53" s="8">
         <v>1399.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="8">
+        <v>1597</v>
+      </c>
+      <c r="R53" s="8">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
         <v>7</v>
       </c>
@@ -2798,8 +3108,14 @@
       <c r="P54" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="25.5">
+      <c r="Q54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="25.5">
       <c r="A55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2848,8 +3164,14 @@
       <c r="P55" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
         <v>2</v>
       </c>
@@ -2898,8 +3220,14 @@
       <c r="P56" s="8">
         <v>707.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="8">
+        <v>794</v>
+      </c>
+      <c r="R56" s="8">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
         <v>9</v>
       </c>
@@ -2948,8 +3276,14 @@
       <c r="P57" s="8">
         <v>1728.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="8">
+        <v>1914</v>
+      </c>
+      <c r="R57" s="8">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
         <v>10</v>
       </c>
@@ -2998,8 +3332,14 @@
       <c r="P58" s="8">
         <v>757.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="8">
+        <v>912</v>
+      </c>
+      <c r="R58" s="8">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="11" t="s">
         <v>11</v>
       </c>
@@ -3048,8 +3388,14 @@
       <c r="P59" s="8">
         <v>1216</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="8">
+        <v>1221</v>
+      </c>
+      <c r="R59" s="8">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="11" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +3444,14 @@
       <c r="P60" s="8">
         <v>287</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="8">
+        <v>295</v>
+      </c>
+      <c r="R60" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
         <v>13</v>
       </c>
@@ -3148,8 +3500,14 @@
       <c r="P61" s="8">
         <v>482</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="8">
+        <v>246</v>
+      </c>
+      <c r="R61" s="19">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
         <v>14</v>
       </c>
@@ -3198,8 +3556,14 @@
       <c r="P62" s="8">
         <v>156.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="8">
+        <v>153</v>
+      </c>
+      <c r="R62" s="8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
         <v>15</v>
       </c>
@@ -3248,8 +3612,14 @@
       <c r="P63" s="8">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="8">
+        <v>88</v>
+      </c>
+      <c r="R63" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
         <v>16</v>
       </c>
@@ -3298,8 +3668,14 @@
       <c r="P64" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="8">
+        <v>8</v>
+      </c>
+      <c r="R64" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
         <v>17</v>
       </c>
@@ -3348,8 +3724,14 @@
       <c r="P65" s="8">
         <v>370</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="8">
+        <v>397</v>
+      </c>
+      <c r="R65" s="8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
         <v>18</v>
       </c>
@@ -3398,8 +3780,14 @@
       <c r="P66" s="8">
         <v>285</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="8">
+        <v>236</v>
+      </c>
+      <c r="R66" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
         <v>19</v>
       </c>
@@ -3448,23 +3836,32 @@
       <c r="P67" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="8">
+        <v>71</v>
+      </c>
+      <c r="R67" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:18">
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
         <v>2006</v>
@@ -3511,8 +3908,14 @@
       <c r="P71" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="9" t="s">
         <v>3</v>
       </c>
@@ -3561,8 +3964,14 @@
       <c r="P72" s="2">
         <v>708.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72" s="2">
+        <v>763.4</v>
+      </c>
+      <c r="R72" s="2">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
         <v>4</v>
       </c>
@@ -3611,8 +4020,14 @@
       <c r="P73" s="3">
         <v>788.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73" s="3">
+        <v>772.2</v>
+      </c>
+      <c r="R73" s="3">
+        <v>1296.0999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
         <v>5</v>
       </c>
@@ -3661,8 +4076,14 @@
       <c r="P74" s="3">
         <v>1303.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74" s="3">
+        <v>1023.6</v>
+      </c>
+      <c r="R74" s="3">
+        <v>1226.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
         <v>6</v>
       </c>
@@ -3711,8 +4132,14 @@
       <c r="P75" s="3">
         <v>931.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75" s="3">
+        <v>899.5</v>
+      </c>
+      <c r="R75" s="3">
+        <v>1184.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
         <v>7</v>
       </c>
@@ -3761,8 +4188,14 @@
       <c r="P76" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="25.5">
+      <c r="Q76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" s="3">
+        <v>2628.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="25.5">
       <c r="A77" s="15" t="s">
         <v>8</v>
       </c>
@@ -3811,8 +4244,14 @@
       <c r="P77" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" s="3">
+        <v>680.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
         <v>2</v>
       </c>
@@ -3861,8 +4300,14 @@
       <c r="P78" s="3">
         <v>742.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78" s="3">
+        <v>864.3</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1418.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
         <v>9</v>
       </c>
@@ -3911,8 +4356,14 @@
       <c r="P79" s="3">
         <v>394</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="3">
+        <v>425</v>
+      </c>
+      <c r="R79" s="3">
+        <v>499.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="11" t="s">
         <v>10</v>
       </c>
@@ -3961,8 +4412,14 @@
       <c r="P80" s="3">
         <v>405.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80" s="3">
+        <v>477.5</v>
+      </c>
+      <c r="R80" s="3">
+        <v>773.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
@@ -4011,8 +4468,14 @@
       <c r="P81" s="3">
         <v>646.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" s="3">
+        <v>693</v>
+      </c>
+      <c r="R81" s="3">
+        <v>926.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="11" t="s">
         <v>12</v>
       </c>
@@ -4061,8 +4524,14 @@
       <c r="P82" s="3">
         <v>358.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82" s="3">
+        <v>482.8</v>
+      </c>
+      <c r="R82" s="3">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="11" t="s">
         <v>13</v>
       </c>
@@ -4111,8 +4580,14 @@
       <c r="P83" s="4">
         <v>441.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83" s="4">
+        <v>826.2</v>
+      </c>
+      <c r="R83" s="4">
+        <v>614.70000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="11" t="s">
         <v>14</v>
       </c>
@@ -4161,8 +4636,14 @@
       <c r="P84" s="3">
         <v>690.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84" s="3">
+        <v>820.4</v>
+      </c>
+      <c r="R84" s="3">
+        <v>872.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="11" t="s">
         <v>15</v>
       </c>
@@ -4211,8 +4692,14 @@
       <c r="P85" s="3">
         <v>936.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="3">
+        <v>1067.9000000000001</v>
+      </c>
+      <c r="R85" s="3">
+        <v>1262.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="11" t="s">
         <v>16</v>
       </c>
@@ -4261,8 +4748,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="R86" s="3">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
         <v>17</v>
       </c>
@@ -4311,8 +4804,14 @@
       <c r="P87" s="3">
         <v>540.70000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="3">
+        <v>609.6</v>
+      </c>
+      <c r="R87" s="3">
+        <v>716.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
         <v>18</v>
       </c>
@@ -4361,8 +4860,14 @@
       <c r="P88" s="3">
         <v>1050.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="3">
+        <v>1342.7</v>
+      </c>
+      <c r="R88" s="3">
+        <v>1157.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="11" t="s">
         <v>19</v>
       </c>
@@ -4410,6 +4915,12 @@
       </c>
       <c r="P89" s="3">
         <v>69.8</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
